--- a/ArduinoFirmware/ISR Frequency Ranges.xlsx
+++ b/ArduinoFirmware/ISR Frequency Ranges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>OCR0A</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Validation</t>
+  </si>
+  <si>
+    <t>The processor runs at 16MHz and we have a 256 prescaler so there are 62500 counts left</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -380,3596 +383,3605 @@
     <col min="3" max="3" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <f>16000000/256</f>
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <f>62500/(A2+1)</f>
+      <c r="B3" s="1">
+        <f>62500/(A3+1)</f>
         <v>31250</v>
       </c>
-      <c r="C2">
-        <f>(16*10^6)/(B2*256)-1</f>
+      <c r="C3">
+        <f>(16*10^6)/(B3*256)-1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <f>A2+1</f>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" si="0">62500/(A3+1)</f>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B67" si="0">62500/(A4+1)</f>
         <v>20833.333333333332</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">(16*10^6)/(B3*256)-1</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="1">(16*10^6)/(B4*256)-1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="2">A3+1</f>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" ref="A5:A68" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>15625</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>10416.666666666666</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>8928.5714285714294</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>5.9999999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7812.5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>6944.4444444444443</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>6250</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>5681.818181818182</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>5208.333333333333</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>4807.6923076923076</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>4464.2857142857147</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>12.999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>4166.666666666667</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>13.999999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>3906.25</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>3676.4705882352941</v>
+        <v>3906.25</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>3472.2222222222222</v>
+        <v>3676.4705882352941</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>3289.4736842105262</v>
+        <v>3472.2222222222222</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>3289.4736842105262</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>2976.1904761904761</v>
+        <v>3125</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>2840.909090909091</v>
+        <v>2976.1904761904761</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>2717.391304347826</v>
+        <v>2840.909090909091</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>2604.1666666666665</v>
+        <v>2717.391304347826</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2604.1666666666665</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>2403.8461538461538</v>
+        <v>2500</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>2314.8148148148148</v>
+        <v>2403.8461538461538</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>2232.1428571428573</v>
+        <v>2314.8148148148148</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>26.999999999999996</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>2155.1724137931033</v>
+        <v>2232.1428571428573</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>28.000000000000004</v>
+        <v>26.999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>2083.3333333333335</v>
+        <v>2155.1724137931033</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>28.999999999999996</v>
+        <v>28.000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>2016.1290322580646</v>
+        <v>2083.3333333333335</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28.999999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>1953.125</v>
+        <v>2016.1290322580646</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>1893.939393939394</v>
+        <v>1953.125</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>1838.2352941176471</v>
+        <v>1893.939393939394</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
-        <v>1785.7142857142858</v>
+        <v>1838.2352941176471</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>1736.1111111111111</v>
+        <v>1785.7142857142858</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>1689.1891891891892</v>
+        <v>1736.1111111111111</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>1644.7368421052631</v>
+        <v>1689.1891891891892</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
-        <v>1602.5641025641025</v>
+        <v>1644.7368421052631</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>1562.5</v>
+        <v>1602.5641025641025</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
-        <v>1524.3902439024391</v>
+        <v>1562.5</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
-        <v>1488.0952380952381</v>
+        <v>1524.3902439024391</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="0"/>
-        <v>1453.4883720930231</v>
+        <v>1488.0952380952381</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
-        <v>1420.4545454545455</v>
+        <v>1453.4883720930231</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="0"/>
-        <v>1388.8888888888889</v>
+        <v>1420.4545454545455</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="0"/>
-        <v>1358.695652173913</v>
+        <v>1388.8888888888889</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
-        <v>1329.7872340425531</v>
+        <v>1358.695652173913</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
-        <v>1302.0833333333333</v>
+        <v>1329.7872340425531</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
-        <v>1275.5102040816328</v>
+        <v>1302.0833333333333</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>47.999999999999993</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>1275.5102040816328</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>47.999999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
-        <v>1225.4901960784314</v>
+        <v>1250</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="0"/>
-        <v>1201.9230769230769</v>
+        <v>1225.4901960784314</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="0"/>
-        <v>1179.2452830188679</v>
+        <v>1201.9230769230769</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="0"/>
-        <v>1157.4074074074074</v>
+        <v>1179.2452830188679</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="0"/>
-        <v>1136.3636363636363</v>
+        <v>1157.4074074074074</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>54.000000000000007</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="0"/>
-        <v>1116.0714285714287</v>
+        <v>1136.3636363636363</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>54.999999999999993</v>
+        <v>54.000000000000007</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="0"/>
-        <v>1096.4912280701753</v>
+        <v>1116.0714285714287</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>56.000000000000007</v>
+        <v>54.999999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
-        <v>1077.5862068965516</v>
+        <v>1096.4912280701753</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>57.000000000000007</v>
+        <v>56.000000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
-        <v>1059.3220338983051</v>
+        <v>1077.5862068965516</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57.000000000000007</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
-        <v>1041.6666666666667</v>
+        <v>1059.3220338983051</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>58.999999999999993</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
-        <v>1024.5901639344263</v>
+        <v>1041.6666666666667</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>59.999999999999993</v>
+        <v>58.999999999999993</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
-        <v>1008.0645161290323</v>
+        <v>1024.5901639344263</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>59.999999999999993</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
-        <v>992.06349206349205</v>
+        <v>1008.0645161290323</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
-        <v>976.5625</v>
+        <v>992.06349206349205</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
-        <v>961.53846153846155</v>
+        <v>976.5625</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
-        <v>946.969696969697</v>
+        <v>961.53846153846155</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B80" si="3">62500/(A67+1)</f>
-        <v>932.83582089552237</v>
+        <f t="shared" si="0"/>
+        <v>946.969696969697</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C80" si="4">(16*10^6)/(B67*256)-1</f>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="5">A67+1</f>
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B81" si="3">62500/(A68+1)</f>
+        <v>932.83582089552237</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C81" si="4">(16*10^6)/(B68*256)-1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <f t="shared" ref="A69:A132" si="5">A68+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="1">
         <f t="shared" si="3"/>
         <v>919.11764705882354</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B70" s="1">
         <f t="shared" si="3"/>
         <v>905.79710144927537</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B71" s="1">
         <f t="shared" si="3"/>
         <v>892.85714285714289</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="1">
         <f t="shared" si="3"/>
         <v>880.28169014084506</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>868.05555555555554</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="1">
         <f t="shared" si="3"/>
         <v>856.16438356164383</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B75" s="1">
         <f t="shared" si="3"/>
         <v>844.59459459459458</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="1">
         <f t="shared" si="3"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="1">
         <f t="shared" si="3"/>
         <v>822.36842105263156</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B78" s="1">
         <f t="shared" si="3"/>
         <v>811.68831168831173</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B79" s="1">
         <f t="shared" si="3"/>
         <v>801.28205128205127</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B80" s="1">
         <f t="shared" si="3"/>
         <v>791.13924050632909</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <f t="shared" si="3"/>
         <v>781.25</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="1">
-        <f t="shared" ref="B81:B99" si="6">62500/(A81+1)</f>
-        <v>771.60493827160496</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ref="C81:C99" si="7">(16*10^6)/(B81*256)-1</f>
-        <v>80</v>
-      </c>
-    </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" ref="B82:B100" si="6">62500/(A82+1)</f>
+        <v>771.60493827160496</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:C100" si="7">(16*10^6)/(B82*256)-1</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="1">
         <f t="shared" si="6"/>
         <v>762.19512195121956</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B84" s="1">
         <f t="shared" si="6"/>
         <v>753.01204819277109</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="1">
         <f t="shared" si="6"/>
         <v>744.04761904761904</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <f t="shared" si="6"/>
         <v>735.29411764705878</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="1">
         <f t="shared" si="6"/>
         <v>726.74418604651157</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="1">
         <f t="shared" si="6"/>
         <v>718.39080459770116</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B89" s="1">
         <f t="shared" si="6"/>
         <v>710.22727272727275</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B90" s="1">
         <f t="shared" si="6"/>
         <v>702.24719101123594</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="1">
         <f t="shared" si="6"/>
         <v>694.44444444444446</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <f t="shared" si="6"/>
         <v>686.8131868131868</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <f t="shared" si="6"/>
         <v>679.3478260869565</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="1">
         <f t="shared" si="6"/>
         <v>672.04301075268813</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="1">
         <f t="shared" si="6"/>
         <v>664.89361702127655</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B96" s="1">
         <f t="shared" si="6"/>
         <v>657.89473684210532</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <f t="shared" si="7"/>
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <f t="shared" si="6"/>
         <v>651.04166666666663</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="1">
         <f t="shared" si="6"/>
         <v>644.32989690721649</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <f t="shared" si="6"/>
         <v>637.75510204081638</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <f t="shared" si="7"/>
         <v>96.999999999999986</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="1">
         <f t="shared" si="6"/>
         <v>631.31313131313129</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="B100" s="1">
-        <f t="shared" ref="B100:B130" si="8">62500/(A100+1)</f>
-        <v>625</v>
-      </c>
-      <c r="C100">
-        <f t="shared" ref="C100:C130" si="9">(16*10^6)/(B100*256)-1</f>
-        <v>99</v>
-      </c>
-    </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" ref="B101:B131" si="8">62500/(A101+1)</f>
+        <v>625</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101:C131" si="9">(16*10^6)/(B101*256)-1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B102" s="1">
         <f t="shared" si="8"/>
         <v>618.81188118811883</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103">
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B103" s="1">
         <f t="shared" si="8"/>
         <v>612.74509803921569</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <f t="shared" si="9"/>
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="1">
         <f t="shared" si="8"/>
         <v>606.79611650485435</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <f t="shared" si="9"/>
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105">
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B105" s="1">
         <f t="shared" si="8"/>
         <v>600.96153846153845</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <f t="shared" si="9"/>
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106">
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B106" s="1">
         <f t="shared" si="8"/>
         <v>595.23809523809518</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <f t="shared" si="9"/>
         <v>104.00000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B107" s="1">
         <f t="shared" si="8"/>
         <v>589.62264150943395</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <f t="shared" si="9"/>
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B108" s="1">
         <f t="shared" si="8"/>
         <v>584.1121495327103</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <f t="shared" si="9"/>
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B109" s="1">
         <f t="shared" si="8"/>
         <v>578.7037037037037</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B110" s="1">
         <f t="shared" si="8"/>
         <v>573.39449541284398</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <f t="shared" si="9"/>
         <v>108.00000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B111" s="1">
         <f t="shared" si="8"/>
         <v>568.18181818181813</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <f t="shared" si="9"/>
         <v>109.00000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B112" s="1">
         <f t="shared" si="8"/>
         <v>563.06306306306305</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B113" s="1">
         <f t="shared" si="8"/>
         <v>558.03571428571433</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <f t="shared" si="9"/>
         <v>110.99999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B114" s="1">
         <f t="shared" si="8"/>
         <v>553.09734513274338</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <f t="shared" si="9"/>
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B115" s="1">
         <f t="shared" si="8"/>
         <v>548.24561403508767</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <f t="shared" si="9"/>
         <v>113.00000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B116" s="1">
         <f t="shared" si="8"/>
         <v>543.47826086956525</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <f t="shared" si="9"/>
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B117" s="1">
         <f t="shared" si="8"/>
         <v>538.79310344827582</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <f t="shared" si="9"/>
         <v>115.00000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B118" s="1">
         <f t="shared" si="8"/>
         <v>534.18803418803418</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <f t="shared" si="9"/>
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B119" s="1">
         <f t="shared" si="8"/>
         <v>529.66101694915255</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <f t="shared" si="9"/>
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B120" s="1">
         <f t="shared" si="8"/>
         <v>525.2100840336135</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <f t="shared" si="9"/>
         <v>117.99999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B121" s="1">
         <f t="shared" si="8"/>
         <v>520.83333333333337</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <f t="shared" si="9"/>
         <v>118.99999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B122" s="1">
         <f t="shared" si="8"/>
         <v>516.52892561983469</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B123" s="1">
         <f t="shared" si="8"/>
         <v>512.29508196721315</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <f t="shared" si="9"/>
         <v>120.99999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B124" s="1">
         <f t="shared" si="8"/>
         <v>508.130081300813</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <f t="shared" si="9"/>
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B125" s="1">
         <f t="shared" si="8"/>
         <v>504.03225806451616</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <f t="shared" si="9"/>
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B126" s="1">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <f t="shared" si="9"/>
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B127" s="1">
         <f t="shared" si="8"/>
         <v>496.03174603174602</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <f t="shared" si="9"/>
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B128" s="1">
         <f t="shared" si="8"/>
         <v>492.12598425196853</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <f t="shared" si="9"/>
         <v>125.99999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B129" s="1">
         <f t="shared" si="8"/>
         <v>488.28125</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <f t="shared" si="9"/>
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B130" s="1">
         <f t="shared" si="8"/>
         <v>484.49612403100775</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B131" s="1">
         <f t="shared" si="8"/>
         <v>480.76923076923077</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <f t="shared" si="9"/>
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <f t="shared" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="1">
-        <f t="shared" ref="B131:B154" si="10">62500/(A131+1)</f>
-        <v>477.09923664122135</v>
-      </c>
-      <c r="C131">
-        <f t="shared" ref="C131:C154" si="11">(16*10^6)/(B131*256)-1</f>
-        <v>130</v>
-      </c>
-    </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="12">A131+1</f>
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" ref="B132:B155" si="10">62500/(A132+1)</f>
+        <v>477.09923664122135</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C155" si="11">(16*10^6)/(B132*256)-1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <f t="shared" ref="A133:A196" si="12">A132+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B133" s="1">
         <f t="shared" si="10"/>
         <v>473.4848484848485</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
         <f t="shared" si="12"/>
         <v>132</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B134" s="1">
         <f t="shared" si="10"/>
         <v>469.9248120300752</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
         <f t="shared" si="12"/>
         <v>133</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B135" s="1">
         <f t="shared" si="10"/>
         <v>466.41791044776119</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <f t="shared" si="11"/>
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
         <f t="shared" si="12"/>
         <v>134</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B136" s="1">
         <f t="shared" si="10"/>
         <v>462.96296296296299</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <f t="shared" si="11"/>
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B137" s="1">
         <f t="shared" si="10"/>
         <v>459.55882352941177</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <f t="shared" si="11"/>
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
         <f t="shared" si="12"/>
         <v>136</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B138" s="1">
         <f t="shared" si="10"/>
         <v>456.20437956204381</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <f t="shared" si="11"/>
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
         <f t="shared" si="12"/>
         <v>137</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B139" s="1">
         <f t="shared" si="10"/>
         <v>452.89855072463769</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <f t="shared" si="11"/>
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
         <f t="shared" si="12"/>
         <v>138</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B140" s="1">
         <f t="shared" si="10"/>
         <v>449.64028776978415</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <f t="shared" si="11"/>
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
         <f t="shared" si="12"/>
         <v>139</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B141" s="1">
         <f t="shared" si="10"/>
         <v>446.42857142857144</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <f t="shared" si="11"/>
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B142" s="1">
         <f t="shared" si="10"/>
         <v>443.26241134751774</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <f t="shared" si="11"/>
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
         <f t="shared" si="12"/>
         <v>141</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B143" s="1">
         <f t="shared" si="10"/>
         <v>440.14084507042253</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
         <f t="shared" si="12"/>
         <v>142</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B144" s="1">
         <f t="shared" si="10"/>
         <v>437.06293706293707</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <f t="shared" si="11"/>
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
         <f t="shared" si="12"/>
         <v>143</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B145" s="1">
         <f t="shared" si="10"/>
         <v>434.02777777777777</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <f t="shared" si="11"/>
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B146" s="1">
         <f t="shared" si="10"/>
         <v>431.0344827586207</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
         <f t="shared" si="12"/>
         <v>145</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B147" s="1">
         <f t="shared" si="10"/>
         <v>428.08219178082192</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <f t="shared" si="11"/>
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
         <f t="shared" si="12"/>
         <v>146</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B148" s="1">
         <f t="shared" si="10"/>
         <v>425.1700680272109</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
         <f t="shared" si="12"/>
         <v>147</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B149" s="1">
         <f t="shared" si="10"/>
         <v>422.29729729729729</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <f t="shared" si="11"/>
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
         <f t="shared" si="12"/>
         <v>148</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B150" s="1">
         <f t="shared" si="10"/>
         <v>419.46308724832215</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <f t="shared" si="11"/>
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
         <f t="shared" si="12"/>
         <v>149</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B151" s="1">
         <f t="shared" si="10"/>
         <v>416.66666666666669</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <f t="shared" si="11"/>
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B152" s="1">
         <f t="shared" si="10"/>
         <v>413.90728476821192</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
         <f t="shared" si="12"/>
         <v>151</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B153" s="1">
         <f t="shared" si="10"/>
         <v>411.18421052631578</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
         <f t="shared" si="12"/>
         <v>152</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B154" s="1">
         <f t="shared" si="10"/>
         <v>408.49673202614377</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <f t="shared" si="11"/>
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
         <f t="shared" si="12"/>
         <v>153</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B155" s="1">
         <f t="shared" si="10"/>
         <v>405.84415584415586</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <f t="shared" si="11"/>
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155">
-        <f t="shared" si="12"/>
-        <v>154</v>
-      </c>
-      <c r="B155" s="1">
-        <f t="shared" ref="B155:B217" si="13">62500/(A155+1)</f>
-        <v>403.22580645161293</v>
-      </c>
-      <c r="C155">
-        <f t="shared" ref="C155:C217" si="14">(16*10^6)/(B155*256)-1</f>
-        <v>154</v>
-      </c>
-    </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
         <f t="shared" si="12"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
-        <f t="shared" si="13"/>
-        <v>400.64102564102564</v>
+        <f t="shared" ref="B156:B218" si="13">62500/(A156+1)</f>
+        <v>403.22580645161293</v>
       </c>
       <c r="C156">
-        <f t="shared" si="14"/>
-        <v>155</v>
+        <f t="shared" ref="C156:C218" si="14">(16*10^6)/(B156*256)-1</f>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
         <f t="shared" si="12"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="13"/>
-        <v>398.08917197452229</v>
+        <v>400.64102564102564</v>
       </c>
       <c r="C157">
         <f t="shared" si="14"/>
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
         <f t="shared" si="12"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="13"/>
-        <v>395.56962025316454</v>
+        <v>398.08917197452229</v>
       </c>
       <c r="C158">
         <f t="shared" si="14"/>
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
         <f t="shared" si="12"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="13"/>
-        <v>393.0817610062893</v>
+        <v>395.56962025316454</v>
       </c>
       <c r="C159">
         <f t="shared" si="14"/>
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
         <f t="shared" si="12"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="13"/>
-        <v>390.625</v>
+        <v>393.0817610062893</v>
       </c>
       <c r="C160">
         <f t="shared" si="14"/>
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
         <f t="shared" si="12"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="13"/>
-        <v>388.19875776397515</v>
+        <v>390.625</v>
       </c>
       <c r="C161">
         <f t="shared" si="14"/>
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
         <f t="shared" si="12"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="13"/>
-        <v>385.80246913580248</v>
+        <v>388.19875776397515</v>
       </c>
       <c r="C162">
         <f t="shared" si="14"/>
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="13"/>
-        <v>383.43558282208591</v>
+        <v>385.80246913580248</v>
       </c>
       <c r="C163">
         <f t="shared" si="14"/>
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
         <f t="shared" si="12"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="13"/>
-        <v>381.09756097560978</v>
+        <v>383.43558282208591</v>
       </c>
       <c r="C164">
         <f t="shared" si="14"/>
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
         <f t="shared" si="12"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="13"/>
-        <v>378.78787878787881</v>
+        <v>381.09756097560978</v>
       </c>
       <c r="C165">
         <f t="shared" si="14"/>
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
         <f t="shared" si="12"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="13"/>
-        <v>376.50602409638554</v>
+        <v>378.78787878787881</v>
       </c>
       <c r="C166">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
         <f t="shared" si="12"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="13"/>
-        <v>374.25149700598803</v>
+        <v>376.50602409638554</v>
       </c>
       <c r="C167">
         <f t="shared" si="14"/>
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <f t="shared" si="12"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="13"/>
-        <v>372.02380952380952</v>
+        <v>374.25149700598803</v>
       </c>
       <c r="C168">
         <f t="shared" si="14"/>
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <f t="shared" si="12"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="13"/>
-        <v>369.82248520710061</v>
+        <v>372.02380952380952</v>
       </c>
       <c r="C169">
         <f t="shared" si="14"/>
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <f t="shared" si="12"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="13"/>
-        <v>367.64705882352939</v>
+        <v>369.82248520710061</v>
       </c>
       <c r="C170">
         <f t="shared" si="14"/>
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <f t="shared" si="12"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="13"/>
-        <v>365.4970760233918</v>
+        <v>367.64705882352939</v>
       </c>
       <c r="C171">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <f t="shared" si="12"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="13"/>
-        <v>363.37209302325579</v>
+        <v>365.4970760233918</v>
       </c>
       <c r="C172">
         <f t="shared" si="14"/>
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <f t="shared" si="12"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="13"/>
-        <v>361.27167630057801</v>
+        <v>363.37209302325579</v>
       </c>
       <c r="C173">
         <f t="shared" si="14"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <f t="shared" si="12"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="13"/>
-        <v>359.19540229885058</v>
+        <v>361.27167630057801</v>
       </c>
       <c r="C174">
         <f t="shared" si="14"/>
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <f t="shared" si="12"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="13"/>
-        <v>357.14285714285717</v>
+        <v>359.19540229885058</v>
       </c>
       <c r="C175">
         <f t="shared" si="14"/>
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <f t="shared" si="12"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="13"/>
-        <v>355.11363636363637</v>
+        <v>357.14285714285717</v>
       </c>
       <c r="C176">
         <f t="shared" si="14"/>
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <f t="shared" si="12"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="13"/>
-        <v>353.10734463276839</v>
+        <v>355.11363636363637</v>
       </c>
       <c r="C177">
         <f t="shared" si="14"/>
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <f t="shared" si="12"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="13"/>
-        <v>351.12359550561797</v>
+        <v>353.10734463276839</v>
       </c>
       <c r="C178">
         <f t="shared" si="14"/>
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <f t="shared" si="12"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="13"/>
-        <v>349.16201117318434</v>
+        <v>351.12359550561797</v>
       </c>
       <c r="C179">
         <f t="shared" si="14"/>
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <f t="shared" si="12"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="13"/>
-        <v>347.22222222222223</v>
+        <v>349.16201117318434</v>
       </c>
       <c r="C180">
         <f t="shared" si="14"/>
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="13"/>
-        <v>345.30386740331494</v>
+        <v>347.22222222222223</v>
       </c>
       <c r="C181">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <f t="shared" si="12"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="13"/>
-        <v>343.4065934065934</v>
+        <v>345.30386740331494</v>
       </c>
       <c r="C182">
         <f t="shared" si="14"/>
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <f t="shared" si="12"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="13"/>
-        <v>341.53005464480873</v>
+        <v>343.4065934065934</v>
       </c>
       <c r="C183">
         <f t="shared" si="14"/>
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <f t="shared" si="12"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="13"/>
-        <v>339.67391304347825</v>
+        <v>341.53005464480873</v>
       </c>
       <c r="C184">
         <f t="shared" si="14"/>
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <f t="shared" si="12"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="13"/>
-        <v>337.83783783783781</v>
+        <v>339.67391304347825</v>
       </c>
       <c r="C185">
         <f t="shared" si="14"/>
-        <v>184.00000000000003</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <f t="shared" si="12"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="13"/>
-        <v>336.02150537634407</v>
+        <v>337.83783783783781</v>
       </c>
       <c r="C186">
         <f t="shared" si="14"/>
-        <v>185</v>
+        <v>184.00000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <f t="shared" si="12"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="13"/>
-        <v>334.22459893048131</v>
+        <v>336.02150537634407</v>
       </c>
       <c r="C187">
         <f t="shared" si="14"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <f t="shared" si="12"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="13"/>
-        <v>332.44680851063828</v>
+        <v>334.22459893048131</v>
       </c>
       <c r="C188">
         <f t="shared" si="14"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <f t="shared" si="12"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="13"/>
-        <v>330.68783068783068</v>
+        <v>332.44680851063828</v>
       </c>
       <c r="C189">
         <f t="shared" si="14"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <f t="shared" si="12"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="13"/>
-        <v>328.94736842105266</v>
+        <v>330.68783068783068</v>
       </c>
       <c r="C190">
         <f t="shared" si="14"/>
-        <v>188.99999999999997</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <f t="shared" si="12"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="13"/>
-        <v>327.22513089005236</v>
+        <v>328.94736842105266</v>
       </c>
       <c r="C191">
         <f t="shared" si="14"/>
-        <v>190</v>
+        <v>188.99999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <f t="shared" si="12"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="13"/>
-        <v>325.52083333333331</v>
+        <v>327.22513089005236</v>
       </c>
       <c r="C192">
         <f t="shared" si="14"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <f t="shared" si="12"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="13"/>
-        <v>323.83419689119171</v>
+        <v>325.52083333333331</v>
       </c>
       <c r="C193">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <f t="shared" si="12"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="13"/>
-        <v>322.16494845360825</v>
+        <v>323.83419689119171</v>
       </c>
       <c r="C194">
         <f t="shared" si="14"/>
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <f t="shared" si="12"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="13"/>
-        <v>320.5128205128205</v>
+        <v>322.16494845360825</v>
       </c>
       <c r="C195">
         <f t="shared" si="14"/>
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
-        <f t="shared" ref="A196:A257" si="15">A195+1</f>
-        <v>195</v>
+        <f t="shared" si="12"/>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="13"/>
-        <v>318.87755102040819</v>
+        <v>320.5128205128205</v>
       </c>
       <c r="C196">
         <f t="shared" si="14"/>
-        <v>194.99999999999997</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
-        <f t="shared" si="15"/>
-        <v>196</v>
+        <f t="shared" ref="A197:A258" si="15">A196+1</f>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="13"/>
-        <v>317.25888324873097</v>
+        <v>318.87755102040819</v>
       </c>
       <c r="C197">
         <f t="shared" si="14"/>
-        <v>196</v>
+        <v>194.99999999999997</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <f t="shared" si="15"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="13"/>
-        <v>315.65656565656565</v>
+        <v>317.25888324873097</v>
       </c>
       <c r="C198">
         <f t="shared" si="14"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <f t="shared" si="15"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="13"/>
-        <v>314.07035175879395</v>
+        <v>315.65656565656565</v>
       </c>
       <c r="C199">
         <f t="shared" si="14"/>
-        <v>198.00000000000003</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <f t="shared" si="15"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="13"/>
-        <v>312.5</v>
+        <v>314.07035175879395</v>
       </c>
       <c r="C200">
         <f t="shared" si="14"/>
-        <v>199</v>
+        <v>198.00000000000003</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <f t="shared" si="15"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="13"/>
-        <v>310.94527363184079</v>
+        <v>312.5</v>
       </c>
       <c r="C201">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <f t="shared" si="15"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="13"/>
-        <v>309.40594059405942</v>
+        <v>310.94527363184079</v>
       </c>
       <c r="C202">
         <f t="shared" si="14"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <f t="shared" si="15"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="13"/>
-        <v>307.88177339901478</v>
+        <v>309.40594059405942</v>
       </c>
       <c r="C203">
         <f t="shared" si="14"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <f t="shared" si="15"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="13"/>
-        <v>306.37254901960785</v>
+        <v>307.88177339901478</v>
       </c>
       <c r="C204">
         <f t="shared" si="14"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <f t="shared" si="15"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="13"/>
-        <v>304.8780487804878</v>
+        <v>306.37254901960785</v>
       </c>
       <c r="C205">
         <f t="shared" si="14"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <f t="shared" si="15"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="13"/>
-        <v>303.39805825242718</v>
+        <v>304.8780487804878</v>
       </c>
       <c r="C206">
         <f t="shared" si="14"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <f t="shared" si="15"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="13"/>
-        <v>301.93236714975848</v>
+        <v>303.39805825242718</v>
       </c>
       <c r="C207">
         <f t="shared" si="14"/>
-        <v>205.99999999999997</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <f t="shared" si="15"/>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="13"/>
-        <v>300.48076923076923</v>
+        <v>301.93236714975848</v>
       </c>
       <c r="C208">
         <f t="shared" si="14"/>
-        <v>207</v>
+        <v>205.99999999999997</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
         <f t="shared" si="15"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="13"/>
-        <v>299.04306220095691</v>
+        <v>300.48076923076923</v>
       </c>
       <c r="C209">
         <f t="shared" si="14"/>
-        <v>208.00000000000003</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
         <f t="shared" si="15"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="13"/>
-        <v>297.61904761904759</v>
+        <v>299.04306220095691</v>
       </c>
       <c r="C210">
         <f t="shared" si="14"/>
-        <v>209.00000000000003</v>
+        <v>208.00000000000003</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
         <f t="shared" si="15"/>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="13"/>
-        <v>296.20853080568719</v>
+        <v>297.61904761904759</v>
       </c>
       <c r="C211">
         <f t="shared" si="14"/>
-        <v>210</v>
+        <v>209.00000000000003</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
         <f t="shared" si="15"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="13"/>
-        <v>294.81132075471697</v>
+        <v>296.20853080568719</v>
       </c>
       <c r="C212">
         <f t="shared" si="14"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
         <f t="shared" si="15"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="13"/>
-        <v>293.42723004694835</v>
+        <v>294.81132075471697</v>
       </c>
       <c r="C213">
         <f t="shared" si="14"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
         <f t="shared" si="15"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="13"/>
-        <v>292.05607476635515</v>
+        <v>293.42723004694835</v>
       </c>
       <c r="C214">
         <f t="shared" si="14"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
         <f t="shared" si="15"/>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="13"/>
-        <v>290.69767441860466</v>
+        <v>292.05607476635515</v>
       </c>
       <c r="C215">
         <f t="shared" si="14"/>
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
         <f t="shared" si="15"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="13"/>
-        <v>289.35185185185185</v>
+        <v>290.69767441860466</v>
       </c>
       <c r="C216">
         <f t="shared" si="14"/>
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
         <f t="shared" si="15"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="13"/>
-        <v>288.0184331797235</v>
+        <v>289.35185185185185</v>
       </c>
       <c r="C217">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
         <f t="shared" si="15"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
-        <f t="shared" ref="B218:B238" si="16">62500/(A218+1)</f>
-        <v>286.69724770642199</v>
+        <f t="shared" si="13"/>
+        <v>288.0184331797235</v>
       </c>
       <c r="C218">
-        <f t="shared" ref="C218:C238" si="17">(16*10^6)/(B218*256)-1</f>
-        <v>217.00000000000003</v>
+        <f t="shared" si="14"/>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
         <f t="shared" si="15"/>
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <f t="shared" ref="B219:B239" si="16">62500/(A219+1)</f>
+        <v>286.69724770642199</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ref="C219:C239" si="17">(16*10^6)/(B219*256)-1</f>
+        <v>217.00000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <f t="shared" si="15"/>
         <v>218</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B220" s="1">
         <f t="shared" si="16"/>
         <v>285.38812785388126</v>
       </c>
-      <c r="C219">
+      <c r="C220">
         <f t="shared" si="17"/>
         <v>218.00000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A220">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221">
         <f t="shared" si="15"/>
         <v>219</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B221" s="1">
         <f t="shared" si="16"/>
         <v>284.09090909090907</v>
       </c>
-      <c r="C220">
+      <c r="C221">
         <f t="shared" si="17"/>
         <v>219.00000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A221">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222">
         <f t="shared" si="15"/>
         <v>220</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B222" s="1">
         <f t="shared" si="16"/>
         <v>282.80542986425337</v>
       </c>
-      <c r="C221">
+      <c r="C222">
         <f t="shared" si="17"/>
         <v>220.00000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A222">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223">
         <f t="shared" si="15"/>
         <v>221</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B223" s="1">
         <f t="shared" si="16"/>
         <v>281.53153153153153</v>
       </c>
-      <c r="C222">
+      <c r="C223">
         <f t="shared" si="17"/>
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A223">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224">
         <f t="shared" si="15"/>
         <v>222</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B224" s="1">
         <f t="shared" si="16"/>
         <v>280.2690582959641</v>
       </c>
-      <c r="C223">
+      <c r="C224">
         <f t="shared" si="17"/>
         <v>222.00000000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A224">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225">
         <f t="shared" si="15"/>
         <v>223</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B225" s="1">
         <f t="shared" si="16"/>
         <v>279.01785714285717</v>
       </c>
-      <c r="C224">
+      <c r="C225">
         <f t="shared" si="17"/>
         <v>222.99999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A225">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226">
         <f t="shared" si="15"/>
         <v>224</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B226" s="1">
         <f t="shared" si="16"/>
         <v>277.77777777777777</v>
       </c>
-      <c r="C225">
+      <c r="C226">
         <f t="shared" si="17"/>
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A226">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227">
         <f t="shared" si="15"/>
         <v>225</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B227" s="1">
         <f t="shared" si="16"/>
         <v>276.54867256637169</v>
       </c>
-      <c r="C226">
+      <c r="C227">
         <f t="shared" si="17"/>
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A227">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228">
         <f t="shared" si="15"/>
         <v>226</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B228" s="1">
         <f t="shared" si="16"/>
         <v>275.3303964757709</v>
       </c>
-      <c r="C227">
+      <c r="C228">
         <f t="shared" si="17"/>
         <v>226.00000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A228">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229">
         <f t="shared" si="15"/>
         <v>227</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B229" s="1">
         <f t="shared" si="16"/>
         <v>274.12280701754383</v>
       </c>
-      <c r="C228">
+      <c r="C229">
         <f t="shared" si="17"/>
         <v>227.00000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A229">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230">
         <f t="shared" si="15"/>
         <v>228</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B230" s="1">
         <f t="shared" si="16"/>
         <v>272.92576419213975</v>
       </c>
-      <c r="C229">
+      <c r="C230">
         <f t="shared" si="17"/>
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A230">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231">
         <f t="shared" si="15"/>
         <v>229</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B231" s="1">
         <f t="shared" si="16"/>
         <v>271.73913043478262</v>
       </c>
-      <c r="C230">
+      <c r="C231">
         <f t="shared" si="17"/>
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A231">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232">
         <f t="shared" si="15"/>
         <v>230</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B232" s="1">
         <f t="shared" si="16"/>
         <v>270.56277056277054</v>
       </c>
-      <c r="C231">
+      <c r="C232">
         <f t="shared" si="17"/>
         <v>230.00000000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A232">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233">
         <f t="shared" si="15"/>
         <v>231</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B233" s="1">
         <f t="shared" si="16"/>
         <v>269.39655172413791</v>
       </c>
-      <c r="C232">
+      <c r="C233">
         <f t="shared" si="17"/>
         <v>231.00000000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A233">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234">
         <f t="shared" si="15"/>
         <v>232</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B234" s="1">
         <f t="shared" si="16"/>
         <v>268.24034334763951</v>
       </c>
-      <c r="C233">
+      <c r="C234">
         <f t="shared" si="17"/>
         <v>231.99999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A234">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235">
         <f t="shared" si="15"/>
         <v>233</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B235" s="1">
         <f t="shared" si="16"/>
         <v>267.09401709401709</v>
       </c>
-      <c r="C234">
+      <c r="C235">
         <f t="shared" si="17"/>
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A235">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
         <f t="shared" si="15"/>
         <v>234</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B236" s="1">
         <f t="shared" si="16"/>
         <v>265.95744680851061</v>
       </c>
-      <c r="C235">
+      <c r="C236">
         <f t="shared" si="17"/>
         <v>234.00000000000003</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A236">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
         <f t="shared" si="15"/>
         <v>235</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B237" s="1">
         <f t="shared" si="16"/>
         <v>264.83050847457628</v>
       </c>
-      <c r="C236">
+      <c r="C237">
         <f t="shared" si="17"/>
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A237">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
         <f t="shared" si="15"/>
         <v>236</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B238" s="1">
         <f t="shared" si="16"/>
         <v>263.71308016877634</v>
       </c>
-      <c r="C237">
+      <c r="C238">
         <f t="shared" si="17"/>
         <v>236.00000000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A238">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
         <f t="shared" si="15"/>
         <v>237</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B239" s="1">
         <f t="shared" si="16"/>
         <v>262.60504201680675</v>
       </c>
-      <c r="C238">
+      <c r="C239">
         <f t="shared" si="17"/>
         <v>236.99999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A239">
-        <f t="shared" si="15"/>
-        <v>238</v>
-      </c>
-      <c r="B239" s="1">
-        <f t="shared" ref="B239:B257" si="18">62500/(A239+1)</f>
-        <v>261.50627615062763</v>
-      </c>
-      <c r="C239">
-        <f t="shared" ref="C239:C257" si="19">(16*10^6)/(B239*256)-1</f>
-        <v>238</v>
-      </c>
-    </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
         <f t="shared" si="15"/>
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <f t="shared" ref="B240:B258" si="18">62500/(A240+1)</f>
+        <v>261.50627615062763</v>
+      </c>
+      <c r="C240">
+        <f t="shared" ref="C240:C258" si="19">(16*10^6)/(B240*256)-1</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <f t="shared" si="15"/>
         <v>239</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B241" s="1">
         <f t="shared" si="18"/>
         <v>260.41666666666669</v>
       </c>
-      <c r="C240">
+      <c r="C241">
         <f t="shared" si="19"/>
         <v>238.99999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A241">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242">
         <f t="shared" si="15"/>
         <v>240</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B242" s="1">
         <f t="shared" si="18"/>
         <v>259.33609958506224</v>
       </c>
-      <c r="C241">
+      <c r="C242">
         <f t="shared" si="19"/>
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A242">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243">
         <f t="shared" si="15"/>
         <v>241</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B243" s="1">
         <f t="shared" si="18"/>
         <v>258.26446280991735</v>
       </c>
-      <c r="C242">
+      <c r="C243">
         <f t="shared" si="19"/>
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A243">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244">
         <f t="shared" si="15"/>
         <v>242</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B244" s="1">
         <f t="shared" si="18"/>
         <v>257.20164609053501</v>
       </c>
-      <c r="C243">
+      <c r="C244">
         <f t="shared" si="19"/>
         <v>241.99999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A244">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245">
         <f t="shared" si="15"/>
         <v>243</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B245" s="1">
         <f t="shared" si="18"/>
         <v>256.14754098360658</v>
       </c>
-      <c r="C244">
+      <c r="C245">
         <f t="shared" si="19"/>
         <v>242.99999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A245">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246">
         <f t="shared" si="15"/>
         <v>244</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B246" s="1">
         <f t="shared" si="18"/>
         <v>255.10204081632654</v>
       </c>
-      <c r="C245">
+      <c r="C246">
         <f t="shared" si="19"/>
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A246">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247">
         <f t="shared" si="15"/>
         <v>245</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B247" s="1">
         <f t="shared" si="18"/>
         <v>254.0650406504065</v>
       </c>
-      <c r="C246">
+      <c r="C247">
         <f t="shared" si="19"/>
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A247">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248">
         <f t="shared" si="15"/>
         <v>246</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B248" s="1">
         <f t="shared" si="18"/>
         <v>253.03643724696357</v>
       </c>
-      <c r="C247">
+      <c r="C248">
         <f t="shared" si="19"/>
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A248">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249">
         <f t="shared" si="15"/>
         <v>247</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B249" s="1">
         <f t="shared" si="18"/>
         <v>252.01612903225808</v>
       </c>
-      <c r="C248">
+      <c r="C249">
         <f t="shared" si="19"/>
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A249">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250">
         <f t="shared" si="15"/>
         <v>248</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B250" s="1">
         <f t="shared" si="18"/>
         <v>251.00401606425703</v>
       </c>
-      <c r="C249">
+      <c r="C250">
         <f t="shared" si="19"/>
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A250">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251">
         <f t="shared" si="15"/>
         <v>249</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B251" s="1">
         <f t="shared" si="18"/>
         <v>250</v>
       </c>
-      <c r="C250">
+      <c r="C251">
         <f t="shared" si="19"/>
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A251">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252">
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B252" s="1">
         <f t="shared" si="18"/>
         <v>249.00398406374501</v>
       </c>
-      <c r="C251">
+      <c r="C252">
         <f t="shared" si="19"/>
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A252">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253">
         <f t="shared" si="15"/>
         <v>251</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B253" s="1">
         <f t="shared" si="18"/>
         <v>248.01587301587301</v>
       </c>
-      <c r="C252">
+      <c r="C253">
         <f t="shared" si="19"/>
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A253">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254">
         <f t="shared" si="15"/>
         <v>252</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B254" s="1">
         <f t="shared" si="18"/>
         <v>247.03557312252966</v>
       </c>
-      <c r="C253">
+      <c r="C254">
         <f t="shared" si="19"/>
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A254">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255">
         <f t="shared" si="15"/>
         <v>253</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B255" s="1">
         <f t="shared" si="18"/>
         <v>246.06299212598427</v>
       </c>
-      <c r="C254">
+      <c r="C255">
         <f t="shared" si="19"/>
         <v>252.99999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A255">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256">
         <f t="shared" si="15"/>
         <v>254</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B256" s="1">
         <f t="shared" si="18"/>
         <v>245.09803921568627</v>
       </c>
-      <c r="C255">
+      <c r="C256">
         <f t="shared" si="19"/>
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A256">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257">
         <f t="shared" si="15"/>
         <v>255</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B257" s="1">
         <f t="shared" si="18"/>
         <v>244.140625</v>
       </c>
-      <c r="C256">
+      <c r="C257">
         <f t="shared" si="19"/>
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A257">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258">
         <f t="shared" si="15"/>
         <v>256</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B258" s="1">
         <f t="shared" si="18"/>
         <v>243.19066147859922</v>
       </c>
-      <c r="C257">
+      <c r="C258">
         <f t="shared" si="19"/>
         <v>256</v>
       </c>
